--- a/xlsx/FishData.xlsx
+++ b/xlsx/FishData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z'hang'Q'i'chao\Documents\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B80A05-0FAE-4476-A022-3673FC656B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F17970-B7FA-444F-A669-046F545450A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4110" yWindow="900" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1296,7 +1296,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1385,7 +1385,7 @@
         <v>0.4</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">

--- a/xlsx/FishData.xlsx
+++ b/xlsx/FishData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z'hang'Q'i'chao\Documents\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F17970-B7FA-444F-A669-046F545450A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3256E72-C3C4-4751-A562-5D7000E5CD9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="900" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="2220" windowWidth="28830" windowHeight="7830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -38,10 +38,6 @@
   </si>
   <si>
     <t>skillId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1296,7 +1292,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1312,9 +1308,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1333,13 +1327,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3">
         <v>0.4</v>
@@ -1353,13 +1347,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4">
         <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3">
         <v>0.6</v>
@@ -1373,13 +1367,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4">
         <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3">
         <v>0.4</v>

--- a/xlsx/FishData.xlsx
+++ b/xlsx/FishData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z'hang'Q'i'chao\Documents\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3256E72-C3C4-4751-A562-5D7000E5CD9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A375607-32C9-45BE-BC37-F6E1393F206C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="2220" windowWidth="28830" windowHeight="7830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -59,6 +59,20 @@
   <si>
     <t>100</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNpc_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishPlayer_01</t>
+  </si>
+  <si>
+    <t>FishNpc_02</t>
   </si>
 </sst>
 </file>
@@ -1289,138 +1303,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="1" max="2" width="8.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>0.4</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>0.6</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4">
         <v>20</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>0.4</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
